--- a/Cornell-VMIT-Tech-Radar.xlsx
+++ b/Cornell-VMIT-Tech-Radar.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11107"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cr396/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cr396/src/cuvmit-tech-radar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CAD985-C995-D14C-997A-AA2A15A272AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C77BC1DA-ABD3-D24B-A8CD-D912DF8FDCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62040" yWindow="5320" windowWidth="35040" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10680" yWindow="6660" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
-    <sheet name="Build your Technology Radar" sheetId="1" r:id="rId1"/>
+    <sheet name="Cornell-VMIT-Tech-Radar" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -37,9 +37,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>Four key metrics</t>
-  </si>
-  <si>
     <t>Adopt</t>
   </si>
   <si>
@@ -49,72 +46,276 @@
     <t>Trial</t>
   </si>
   <si>
+    <t>Platforms</t>
+  </si>
+  <si>
     <t>Assess</t>
   </si>
   <si>
+    <t>Tools</t>
+  </si>
+  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>Backstage</t>
-  </si>
-  <si>
-    <t>Platforms</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>cert-manager</t>
-  </si>
-  <si>
-    <t>Jetpack Compose</t>
-  </si>
-  <si>
-    <t>languages-and-frameworks</t>
-  </si>
-  <si>
-    <t>Hi mom!</t>
+    <t>Languages &amp; Frameworks</t>
+  </si>
+  <si>
+    <t>Loopback</t>
+  </si>
+  <si>
+    <t>Loopback is a framework for writing Microservices, similar to NestJS</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>Bootstrap is a CSS framework already used in AngularJS Apps.  Evaluate it as a replacement in Angular for Material</t>
+  </si>
+  <si>
+    <t>Strapi</t>
+  </si>
+  <si>
+    <t>Strapi is an open source Headless CSS Framework running on NodeJS</t>
+  </si>
+  <si>
+    <t>Gatsby</t>
+  </si>
+  <si>
+    <t>Gatsby is a static site generation tool similar to Jekyll</t>
+  </si>
+  <si>
+    <t>TypeORM</t>
+  </si>
+  <si>
+    <t>TypeORM is a database Object Relational Mapping Tool heavily tied to TypeScript.  It is a replacement for ObjectionJS</t>
+  </si>
+  <si>
+    <t>NestJS</t>
+  </si>
+  <si>
+    <t>NestJS is an opinionated framework for writing microsservices, very similar in architectural design to Angular</t>
+  </si>
+  <si>
+    <t>date-fns</t>
+  </si>
+  <si>
+    <t>date-fns is a svelte library of Date functions using JavaScript's immutable Date type</t>
+  </si>
+  <si>
+    <t>K9s</t>
+  </si>
+  <si>
+    <t>k9s is a text-based terminal tool that makes k8s administration easier</t>
+  </si>
+  <si>
+    <t>QuickSight</t>
+  </si>
+  <si>
+    <t>QuickSight is an AWS tool for Business Intelligence Dashboards, similar to Tableau</t>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <t>Glue is an AWS Tool for ETL - Extract Transfer Load</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Azure is Microsoft's alternative to AWS</t>
+  </si>
+  <si>
+    <t>Google Computing Platform</t>
+  </si>
+  <si>
+    <t>GCP is Google's alternative to AWS</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Github is cloud-based Git repositiory hosting, similar to Bitbucket</t>
+  </si>
+  <si>
+    <t>Micro Front Ends</t>
+  </si>
+  <si>
+    <t>Micro Frontends are the equivalent to Microservices on the client side</t>
+  </si>
+  <si>
+    <t>Headless CMS</t>
+  </si>
+  <si>
+    <t>Headless CMS's provide a UI for content creation and workflow, while leaving the actual display up to the organization</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Machine Learning Platforms turn tons of data into classification schemes that can be used on unknown data</t>
+  </si>
+  <si>
+    <t>Low Code Environments</t>
+  </si>
+  <si>
+    <t>Low code platforms allow non-developers to make certain changes and enhancements to web applications</t>
+  </si>
+  <si>
+    <t>Database Migration as Code</t>
+  </si>
+  <si>
+    <t>Describing database changes in programs that can be source-controlled</t>
+  </si>
+  <si>
+    <t>CI/CD Testing</t>
+  </si>
+  <si>
+    <t>Run automated tests and use as gatekeeper for deployment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="&quot;Open Sans&quot;"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Open Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,12 +324,179 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -136,26 +504,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,56 +717,150 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -363,135 +1003,370 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="13">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="13">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="13">
-      <c r="A13" s="7"/>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Cornell-VMIT-Tech-Radar.xlsx
+++ b/Cornell-VMIT-Tech-Radar.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cr396/src/cuvmit-tech-radar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C77BC1DA-ABD3-D24B-A8CD-D912DF8FDCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7DB8AE-C4A2-B745-B850-787D0046B18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="6660" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="28560" yWindow="6680" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cornell-VMIT-Tech-Radar" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -173,12 +173,18 @@
   </si>
   <si>
     <t>Run automated tests and use as gatekeeper for deployment</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>Angular is a client-based SPA Framework.  I'm listing it here because the Radar draws the rings in order listed in the spreadsheet, wierdly.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1012,11 +1018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,10 +1051,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1057,12 +1063,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1074,12 +1080,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1091,12 +1097,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1108,15 +1114,15 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1125,12 +1131,12 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1142,12 +1148,12 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1159,32 +1165,32 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1193,15 +1199,15 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1210,29 +1216,29 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1244,12 +1250,12 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1261,29 +1267,29 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1295,12 +1301,12 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1312,12 +1318,12 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1329,15 +1335,15 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1346,12 +1352,12 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1363,6 +1369,23 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>50</v>
       </c>
     </row>
